--- a/biology/Écologie/Écologie_exploratoire/Écologie_exploratoire.xlsx
+++ b/biology/Écologie/Écologie_exploratoire/Écologie_exploratoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cologie_exploratoire</t>
+          <t>Écologie_exploratoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écologie exploratoire[1] est une discipline de la recherche en écologie qui étudie des relations peu ou pas documentées entre les espèces, leur environnement et les facteurs de pression dans un objectif d'élaborer des actions de conservation de la biodiversité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écologie exploratoire est une discipline de la recherche en écologie qui étudie des relations peu ou pas documentées entre les espèces, leur environnement et les facteurs de pression dans un objectif d'élaborer des actions de conservation de la biodiversité.
 </t>
         </is>
       </c>
